--- a/docs/用户端与服务器通信接口.xlsx
+++ b/docs/用户端与服务器通信接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api概览" sheetId="1" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2219,7 +2219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
